--- a/WebscrapperAssignment/Output/Final_output.xlsx
+++ b/WebscrapperAssignment/Output/Final_output.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pulkit Documents\Data Science\PRACTICE\GitHub Repos\Data-Science-Projects\WebscrapperAssignment\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8AD3D0-FF44-4F63-94A2-B84BF8ADBE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1069,8 +1075,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,13 +1152,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1190,7 +1204,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1224,6 +1238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1258,9 +1273,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1433,14 +1449,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1504,10 +1536,10 @@
         <v>1166</v>
       </c>
       <c r="F2">
-        <v>0.1369364393776158</v>
+        <v>0.13693643937761579</v>
       </c>
       <c r="G2">
-        <v>0.4633642403348286</v>
+        <v>0.46336424033482859</v>
       </c>
       <c r="H2">
         <v>10162</v>
@@ -1525,16 +1557,16 @@
         <v>11955</v>
       </c>
       <c r="M2">
-        <v>2.24804469273743</v>
+        <v>2.2480446927374298</v>
       </c>
       <c r="N2">
         <v>22</v>
       </c>
       <c r="O2">
-        <v>5.677094972067039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>5.6770949720670387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1551,10 +1583,10 @@
         <v>783</v>
       </c>
       <c r="F3">
-        <v>0.07469251007613077</v>
+        <v>7.4692510076130772E-2</v>
       </c>
       <c r="G3">
-        <v>0.4335961337513061</v>
+        <v>0.43359613375130612</v>
       </c>
       <c r="H3">
         <v>6861</v>
@@ -1572,7 +1604,7 @@
         <v>8275</v>
       </c>
       <c r="M3">
-        <v>1.948899929027679</v>
+        <v>1.9488999290276789</v>
       </c>
       <c r="N3">
         <v>51</v>
@@ -1581,7 +1613,7 @@
         <v>4.869410929737402</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1633,7 @@
         <v>0.1114697117950543</v>
       </c>
       <c r="G4">
-        <v>0.4832005722587915</v>
+        <v>0.48320057225879148</v>
       </c>
       <c r="H4">
         <v>9220</v>
@@ -1619,16 +1651,16 @@
         <v>10922</v>
       </c>
       <c r="M4">
-        <v>2.187647058823529</v>
+        <v>2.1876470588235288</v>
       </c>
       <c r="N4">
         <v>28</v>
       </c>
       <c r="O4">
-        <v>5.423529411764706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>5.4235294117647062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1680,7 @@
         <v>0.1414189696386666</v>
       </c>
       <c r="G5">
-        <v>0.487386691591237</v>
+        <v>0.48738669159123699</v>
       </c>
       <c r="H5">
         <v>8061</v>
@@ -1672,10 +1704,10 @@
         <v>49</v>
       </c>
       <c r="O5">
-        <v>4.885454545454546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>4.8854545454545457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1692,10 +1724,10 @@
         <v>1042</v>
       </c>
       <c r="F6">
-        <v>0.05317796664120197</v>
+        <v>5.3177966641201967E-2</v>
       </c>
       <c r="G6">
-        <v>0.5091386995357584</v>
+        <v>0.50913869953575841</v>
       </c>
       <c r="H6">
         <v>8927</v>
@@ -1713,16 +1745,16 @@
         <v>10671</v>
       </c>
       <c r="M6">
-        <v>2.015526164462335</v>
+        <v>2.0155261644623348</v>
       </c>
       <c r="N6">
         <v>53</v>
       </c>
       <c r="O6">
-        <v>5.133410005750432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>5.1334100057504317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1739,10 +1771,10 @@
         <v>739</v>
       </c>
       <c r="F7">
-        <v>0.1210820885820885</v>
+        <v>0.12108208858208851</v>
       </c>
       <c r="G7">
-        <v>0.4533339508339509</v>
+        <v>0.45333395083395089</v>
       </c>
       <c r="H7">
         <v>6542</v>
@@ -1760,16 +1792,16 @@
         <v>7845</v>
       </c>
       <c r="M7">
-        <v>2.023975251353442</v>
+        <v>2.0239752513534421</v>
       </c>
       <c r="N7">
         <v>55</v>
       </c>
       <c r="O7">
-        <v>5.059551430781129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>5.0595514307811289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1786,16 +1818,16 @@
         <v>423</v>
       </c>
       <c r="F8">
-        <v>0.1469474366213497</v>
+        <v>0.14694743662134971</v>
       </c>
       <c r="G8">
-        <v>0.4169076092989136</v>
+        <v>0.41690760929891357</v>
       </c>
       <c r="H8">
         <v>3754</v>
       </c>
       <c r="I8">
-        <v>298.35</v>
+        <v>298.35000000000002</v>
       </c>
       <c r="J8">
         <v>735</v>
@@ -1807,16 +1839,16 @@
         <v>4491</v>
       </c>
       <c r="M8">
-        <v>1.997278911564626</v>
+        <v>1.9972789115646259</v>
       </c>
       <c r="N8">
         <v>17</v>
       </c>
       <c r="O8">
-        <v>5.107482993197279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>5.1074829931972792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1833,10 +1865,10 @@
         <v>1247</v>
       </c>
       <c r="F9">
-        <v>0.1685887445887446</v>
+        <v>0.16858874458874459</v>
       </c>
       <c r="G9">
-        <v>0.5311564854898188</v>
+        <v>0.53115648548981875</v>
       </c>
       <c r="H9">
         <v>10664</v>
@@ -1854,16 +1886,16 @@
         <v>12822</v>
       </c>
       <c r="M9">
-        <v>2.047795823665893</v>
+        <v>2.0477958236658931</v>
       </c>
       <c r="N9">
         <v>55</v>
       </c>
       <c r="O9">
-        <v>4.948491879350348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4.9484918793503478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1915,7 @@
         <v>0.1162765048115367</v>
       </c>
       <c r="G10">
-        <v>0.4650923740095715</v>
+        <v>0.46509237400957149</v>
       </c>
       <c r="H10">
         <v>10242</v>
@@ -1901,7 +1933,7 @@
         <v>12222</v>
       </c>
       <c r="M10">
-        <v>2.130060728744939</v>
+        <v>2.1300607287449389</v>
       </c>
       <c r="N10">
         <v>83</v>
@@ -1910,7 +1942,7 @@
         <v>5.183198380566802</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +1962,7 @@
         <v>0.1163937556154537</v>
       </c>
       <c r="G11">
-        <v>0.4197340316915787</v>
+        <v>0.41973403169157869</v>
       </c>
       <c r="H11">
         <v>6571</v>
@@ -1948,16 +1980,16 @@
         <v>7762</v>
       </c>
       <c r="M11">
-        <v>2.213624894869638</v>
+        <v>2.2136248948696382</v>
       </c>
       <c r="N11">
         <v>32</v>
       </c>
       <c r="O11">
-        <v>5.526492851135408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>5.5264928511354077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1974,10 +2006,10 @@
         <v>796</v>
       </c>
       <c r="F12">
-        <v>0.1086625655046708</v>
+        <v>0.10866256550467079</v>
       </c>
       <c r="G12">
-        <v>0.3785477329687856</v>
+        <v>0.37854773296878558</v>
       </c>
       <c r="H12">
         <v>6193</v>
@@ -2001,10 +2033,10 @@
         <v>18</v>
       </c>
       <c r="O12">
-        <v>5.039056143205858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.0390561432058583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2021,7 +2053,7 @@
         <v>903</v>
       </c>
       <c r="F13">
-        <v>0.142055509007122</v>
+        <v>0.14205550900712199</v>
       </c>
       <c r="G13">
         <v>0.3973464599916211</v>
@@ -2042,16 +2074,16 @@
         <v>9991</v>
       </c>
       <c r="M13">
-        <v>1.991720875221762</v>
+        <v>1.9917208752217621</v>
       </c>
       <c r="N13">
         <v>64</v>
       </c>
       <c r="O13">
-        <v>4.904790065050266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>4.9047900650502658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2068,10 +2100,10 @@
         <v>993</v>
       </c>
       <c r="F14">
-        <v>0.05684260184260184</v>
+        <v>5.6842601842601842E-2</v>
       </c>
       <c r="G14">
-        <v>0.4645467032967034</v>
+        <v>0.46454670329670339</v>
       </c>
       <c r="H14">
         <v>8402</v>
@@ -2089,16 +2121,16 @@
         <v>10044</v>
       </c>
       <c r="M14">
-        <v>2.070164734594265</v>
+        <v>2.0701647345942651</v>
       </c>
       <c r="N14">
         <v>34</v>
       </c>
       <c r="O14">
-        <v>5.126296522269676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>5.1262965222696764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2150,7 @@
         <v>0.1761308203991131</v>
       </c>
       <c r="G15">
-        <v>0.5311677753141167</v>
+        <v>0.53116777531411674</v>
       </c>
       <c r="H15">
         <v>2746</v>
@@ -2142,10 +2174,10 @@
         <v>6</v>
       </c>
       <c r="O15">
-        <v>5.448412698412699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>5.4484126984126986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2162,10 +2194,10 @@
         <v>921</v>
       </c>
       <c r="F16">
-        <v>0.1326305759457933</v>
+        <v>0.13263057594579331</v>
       </c>
       <c r="G16">
-        <v>0.504171019198193</v>
+        <v>0.50417101919819296</v>
       </c>
       <c r="H16">
         <v>8686</v>
@@ -2189,10 +2221,10 @@
         <v>63</v>
       </c>
       <c r="O16">
-        <v>4.806862202545656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>4.8068622025456564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2244,7 @@
         <v>0.1823644609358894</v>
       </c>
       <c r="G17">
-        <v>0.4481923830138116</v>
+        <v>0.44819238301381159</v>
       </c>
       <c r="H17">
         <v>4968</v>
@@ -2230,16 +2262,16 @@
         <v>5931</v>
       </c>
       <c r="M17">
-        <v>2.100418410041841</v>
+        <v>2.1004184100418408</v>
       </c>
       <c r="N17">
         <v>23</v>
       </c>
       <c r="O17">
-        <v>5.196652719665272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>5.1966527196652716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2256,16 +2288,16 @@
         <v>438</v>
       </c>
       <c r="F18">
-        <v>0.08763167388167389</v>
+        <v>8.7631673881673894E-2</v>
       </c>
       <c r="G18">
-        <v>0.3434217171717172</v>
+        <v>0.34342171717171721</v>
       </c>
       <c r="H18">
         <v>3960</v>
       </c>
       <c r="I18">
-        <v>292.28</v>
+        <v>292.27999999999997</v>
       </c>
       <c r="J18">
         <v>720</v>
@@ -2277,7 +2309,7 @@
         <v>4681</v>
       </c>
       <c r="M18">
-        <v>2.1375</v>
+        <v>2.1375000000000002</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -2286,7 +2318,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2303,10 +2335,10 @@
         <v>195</v>
       </c>
       <c r="F19">
-        <v>0.09166796166796166</v>
+        <v>9.1667961667961664E-2</v>
       </c>
       <c r="G19">
-        <v>0.3912768712768713</v>
+        <v>0.39127687127687127</v>
       </c>
       <c r="H19">
         <v>1700</v>
@@ -2330,10 +2362,10 @@
         <v>9</v>
       </c>
       <c r="O19">
-        <v>5.396825396825397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>5.3968253968253972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2380,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2397,10 +2429,10 @@
         <v>759</v>
       </c>
       <c r="F21">
-        <v>0.0441591080876795</v>
+        <v>4.4159108087679498E-2</v>
       </c>
       <c r="G21">
-        <v>0.3958860980289551</v>
+        <v>0.39588609802895508</v>
       </c>
       <c r="H21">
         <v>7032</v>
@@ -2418,16 +2450,16 @@
         <v>8413</v>
       </c>
       <c r="M21">
-        <v>2.064727272727273</v>
+        <v>2.0647272727272732</v>
       </c>
       <c r="N21">
         <v>17</v>
       </c>
       <c r="O21">
-        <v>5.114181818181819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>5.1141818181818186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2444,10 +2476,10 @@
         <v>411</v>
       </c>
       <c r="F22">
-        <v>0.1559382284382284</v>
+        <v>0.15593822843822841</v>
       </c>
       <c r="G22">
-        <v>0.4100283050283051</v>
+        <v>0.41002830502830512</v>
       </c>
       <c r="H22">
         <v>3573</v>
@@ -2465,16 +2497,16 @@
         <v>4294</v>
       </c>
       <c r="M22">
-        <v>1.972222222222222</v>
+        <v>1.9722222222222221</v>
       </c>
       <c r="N22">
         <v>15</v>
       </c>
       <c r="O22">
-        <v>4.9625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.9625000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2494,7 +2526,7 @@
         <v>0.1887111297412806</v>
       </c>
       <c r="G23">
-        <v>0.4757927332299194</v>
+        <v>0.47579273322991938</v>
       </c>
       <c r="H23">
         <v>9448</v>
@@ -2512,16 +2544,16 @@
         <v>11409</v>
       </c>
       <c r="M23">
-        <v>1.949818934299017</v>
+        <v>1.9498189342990171</v>
       </c>
       <c r="N23">
         <v>51</v>
       </c>
       <c r="O23">
-        <v>4.887739265390585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.8877392653905849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2538,7 +2570,7 @@
         <v>411</v>
       </c>
       <c r="F24">
-        <v>0.2718864468864469</v>
+        <v>0.27188644688644692</v>
       </c>
       <c r="G24">
         <v>0.5027521367521367</v>
@@ -2559,16 +2591,16 @@
         <v>4135</v>
       </c>
       <c r="M24">
-        <v>2.095380029806259</v>
+        <v>2.0953800298062588</v>
       </c>
       <c r="N24">
         <v>24</v>
       </c>
       <c r="O24">
-        <v>5.141579731743666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>5.1415797317436658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2588,13 +2620,13 @@
         <v>0.1259778911564626</v>
       </c>
       <c r="G25">
-        <v>0.4375850340136054</v>
+        <v>0.43758503401360538</v>
       </c>
       <c r="H25">
         <v>1884</v>
       </c>
       <c r="I25">
-        <v>154.05</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="J25">
         <v>375</v>
@@ -2606,7 +2638,7 @@
         <v>2260</v>
       </c>
       <c r="M25">
-        <v>2.013333333333333</v>
+        <v>2.0133333333333332</v>
       </c>
       <c r="N25">
         <v>4</v>
@@ -2615,7 +2647,7 @@
         <v>5.024</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2632,10 +2664,10 @@
         <v>722</v>
       </c>
       <c r="F26">
-        <v>0.162836227442969</v>
+        <v>0.16283622744296899</v>
       </c>
       <c r="G26">
-        <v>0.4663474633980251</v>
+        <v>0.46634746339802507</v>
       </c>
       <c r="H26">
         <v>5557</v>
@@ -2653,16 +2685,16 @@
         <v>6693</v>
       </c>
       <c r="M26">
-        <v>1.956979806848112</v>
+        <v>1.9569798068481119</v>
       </c>
       <c r="N26">
         <v>36</v>
       </c>
       <c r="O26">
-        <v>4.878841088674275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>4.8788410886742746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2679,10 +2711,10 @@
         <v>391</v>
       </c>
       <c r="F27">
-        <v>0.1259626881055453</v>
+        <v>0.12596268810554531</v>
       </c>
       <c r="G27">
-        <v>0.3756125884697314</v>
+        <v>0.37561258846973139</v>
       </c>
       <c r="H27">
         <v>3375</v>
@@ -2700,16 +2732,16 @@
         <v>3999</v>
       </c>
       <c r="M27">
-        <v>2.232520325203252</v>
+        <v>2.2325203252032519</v>
       </c>
       <c r="N27">
         <v>7</v>
       </c>
       <c r="O27">
-        <v>5.487804878048781</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>5.4878048780487809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2729,7 +2761,7 @@
         <v>0.2274494949494949</v>
       </c>
       <c r="G28">
-        <v>0.5095454545454545</v>
+        <v>0.50954545454545452</v>
       </c>
       <c r="H28">
         <v>1998</v>
@@ -2747,16 +2779,16 @@
         <v>2387</v>
       </c>
       <c r="M28">
-        <v>2.092783505154639</v>
+        <v>2.0927835051546388</v>
       </c>
       <c r="N28">
         <v>12</v>
       </c>
       <c r="O28">
-        <v>5.149484536082475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>5.1494845360824746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2773,10 +2805,10 @@
         <v>106</v>
       </c>
       <c r="F29">
-        <v>0.04611801242236026</v>
+        <v>4.6118012422360258E-2</v>
       </c>
       <c r="G29">
-        <v>0.2803312629399586</v>
+        <v>0.28033126293995858</v>
       </c>
       <c r="H29">
         <v>879</v>
@@ -2794,16 +2826,16 @@
         <v>1043</v>
       </c>
       <c r="M29">
-        <v>2.214723926380368</v>
+        <v>2.2147239263803682</v>
       </c>
       <c r="N29">
         <v>5</v>
       </c>
       <c r="O29">
-        <v>5.392638036809816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>5.3926380368098163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2820,10 +2852,10 @@
         <v>436</v>
       </c>
       <c r="F30">
-        <v>0.05008615288220553</v>
+        <v>5.0086152882205533E-2</v>
       </c>
       <c r="G30">
-        <v>0.4813596491228072</v>
+        <v>0.48135964912280721</v>
       </c>
       <c r="H30">
         <v>3836</v>
@@ -2847,10 +2879,10 @@
         <v>64</v>
       </c>
       <c r="O30">
-        <v>4.759305210918114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>4.7593052109181144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2870,7 +2902,7 @@
         <v>0.3378571428571428</v>
       </c>
       <c r="G31">
-        <v>0.4564285714285715</v>
+        <v>0.45642857142857152</v>
       </c>
       <c r="H31">
         <v>858</v>
@@ -2894,10 +2926,10 @@
         <v>8</v>
       </c>
       <c r="O31">
-        <v>4.766666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>4.7666666666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2914,7 +2946,7 @@
         <v>729</v>
       </c>
       <c r="F32">
-        <v>0.09488239538239539</v>
+        <v>9.4882395382395388E-2</v>
       </c>
       <c r="G32">
         <v>0.3976969696969696</v>
@@ -2941,10 +2973,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>5.654576856649395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>5.6545768566493946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2961,10 +2993,10 @@
         <v>304</v>
       </c>
       <c r="F33">
-        <v>0.05044427511264245</v>
+        <v>5.0444275112642448E-2</v>
       </c>
       <c r="G33">
-        <v>0.3972620151956887</v>
+        <v>0.39726201519568871</v>
       </c>
       <c r="H33">
         <v>2680</v>
@@ -2982,7 +3014,7 @@
         <v>3209</v>
       </c>
       <c r="M33">
-        <v>1.994307400379507</v>
+        <v>1.9943074003795069</v>
       </c>
       <c r="N33">
         <v>10</v>
@@ -2991,7 +3023,7 @@
         <v>5.0853889943074</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3008,10 +3040,10 @@
         <v>572</v>
       </c>
       <c r="F34">
-        <v>0.03834140726997871</v>
+        <v>3.8341407269978707E-2</v>
       </c>
       <c r="G34">
-        <v>0.4785533051604483</v>
+        <v>0.47855330516044831</v>
       </c>
       <c r="H34">
         <v>5144</v>
@@ -3029,16 +3061,16 @@
         <v>6200</v>
       </c>
       <c r="M34">
-        <v>1.928301886792453</v>
+        <v>1.9283018867924531</v>
       </c>
       <c r="N34">
         <v>46</v>
       </c>
       <c r="O34">
-        <v>4.852830188679246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>4.8528301886792464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3055,10 +3087,10 @@
         <v>989</v>
       </c>
       <c r="F35">
-        <v>0.08824155360468211</v>
+        <v>8.824155360468211E-2</v>
       </c>
       <c r="G35">
-        <v>0.4025685022612396</v>
+        <v>0.40256850226123958</v>
       </c>
       <c r="H35">
         <v>9249</v>
@@ -3082,10 +3114,10 @@
         <v>37</v>
       </c>
       <c r="O35">
-        <v>5.374201045903544</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>5.3742010459035443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3105,7 +3137,7 @@
         <v>0.1243234224484225</v>
       </c>
       <c r="G36">
-        <v>0.4999897174897173</v>
+        <v>0.49998971748971732</v>
       </c>
       <c r="H36">
         <v>8328</v>
@@ -3123,16 +3155,16 @@
         <v>10079</v>
       </c>
       <c r="M36">
-        <v>1.896177980604678</v>
+        <v>1.8961779806046779</v>
       </c>
       <c r="N36">
         <v>44</v>
       </c>
       <c r="O36">
-        <v>4.750713063320023</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>4.7507130633200232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3149,10 +3181,10 @@
         <v>860</v>
       </c>
       <c r="F37">
-        <v>0.06454872646733112</v>
+        <v>6.4548726467331119E-2</v>
       </c>
       <c r="G37">
-        <v>0.398343484680694</v>
+        <v>0.39834348468069403</v>
       </c>
       <c r="H37">
         <v>7046</v>
@@ -3176,10 +3208,10 @@
         <v>31</v>
       </c>
       <c r="O37">
-        <v>4.855961405926947</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>4.8559614059269469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3196,10 +3228,10 @@
         <v>452</v>
       </c>
       <c r="F38">
-        <v>0.1788780663780664</v>
+        <v>0.17887806637806641</v>
       </c>
       <c r="G38">
-        <v>0.4728105228105229</v>
+        <v>0.47281052281052288</v>
       </c>
       <c r="H38">
         <v>4049</v>
@@ -3223,10 +3255,10 @@
         <v>47</v>
       </c>
       <c r="O38">
-        <v>4.585503963759909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>4.5855039637599093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3246,13 +3278,13 @@
         <v>0.2201765188834155</v>
       </c>
       <c r="G39">
-        <v>0.4368431855500822</v>
+        <v>0.43684318555008222</v>
       </c>
       <c r="H39">
         <v>6464</v>
       </c>
       <c r="I39">
-        <v>567.0599999999999</v>
+        <v>567.05999999999995</v>
       </c>
       <c r="J39">
         <v>1410</v>
@@ -3270,10 +3302,10 @@
         <v>53</v>
       </c>
       <c r="O39">
-        <v>4.584397163120568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>4.5843971631205678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3290,10 +3322,10 @@
         <v>251</v>
       </c>
       <c r="F40">
-        <v>0.2539562289562289</v>
+        <v>0.25395622895622888</v>
       </c>
       <c r="G40">
-        <v>0.5148629148629151</v>
+        <v>0.51486291486291513</v>
       </c>
       <c r="H40">
         <v>2202</v>
@@ -3311,16 +3343,16 @@
         <v>2671</v>
       </c>
       <c r="M40">
-        <v>1.942307692307692</v>
+        <v>1.9423076923076921</v>
       </c>
       <c r="N40">
         <v>23</v>
       </c>
       <c r="O40">
-        <v>4.705128205128205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>4.7051282051282053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3340,13 +3372,13 @@
         <v>0.124580581847531</v>
       </c>
       <c r="G41">
-        <v>0.4462722588146315</v>
+        <v>0.44627225881463151</v>
       </c>
       <c r="H41">
         <v>8204</v>
       </c>
       <c r="I41">
-        <v>639.5599999999999</v>
+        <v>639.55999999999995</v>
       </c>
       <c r="J41">
         <v>1591</v>
@@ -3358,16 +3390,16 @@
         <v>9797</v>
       </c>
       <c r="M41">
-        <v>2.086737900691389</v>
+        <v>2.0867379006913889</v>
       </c>
       <c r="N41">
         <v>24</v>
       </c>
       <c r="O41">
-        <v>5.156505342551855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>5.1565053425518554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3384,10 +3416,10 @@
         <v>515</v>
       </c>
       <c r="F42">
-        <v>0.07595643019112405</v>
+        <v>7.5956430191124052E-2</v>
       </c>
       <c r="G42">
-        <v>0.5767808551992226</v>
+        <v>0.57678085519922262</v>
       </c>
       <c r="H42">
         <v>4749</v>
@@ -3405,16 +3437,16 @@
         <v>5732</v>
       </c>
       <c r="M42">
-        <v>2.040485829959514</v>
+        <v>2.0404858299595139</v>
       </c>
       <c r="N42">
         <v>74</v>
       </c>
       <c r="O42">
-        <v>4.80668016194332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>4.8066801619433202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3434,7 +3466,7 @@
         <v>0.2626820728291317</v>
       </c>
       <c r="G43">
-        <v>0.6234313725490195</v>
+        <v>0.62343137254901948</v>
       </c>
       <c r="H43">
         <v>5131</v>
@@ -3458,10 +3490,10 @@
         <v>78</v>
       </c>
       <c r="O43">
-        <v>4.552795031055901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>4.5527950310559007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3481,7 +3513,7 @@
         <v>0.1075328639614354</v>
       </c>
       <c r="G44">
-        <v>0.4355333189399124</v>
+        <v>0.43553331893991237</v>
       </c>
       <c r="H44">
         <v>5904</v>
@@ -3499,16 +3531,16 @@
         <v>7100</v>
       </c>
       <c r="M44">
-        <v>1.883291351805206</v>
+        <v>1.8832913518052059</v>
       </c>
       <c r="N44">
         <v>13</v>
       </c>
       <c r="O44">
-        <v>4.957178841309823</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>4.9571788413098226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3528,13 +3560,13 @@
         <v>0.1018683187560739</v>
       </c>
       <c r="G45">
-        <v>0.3550147981270432</v>
+        <v>0.35501479812704317</v>
       </c>
       <c r="H45">
         <v>7456</v>
       </c>
       <c r="I45">
-        <v>577.3</v>
+        <v>577.29999999999995</v>
       </c>
       <c r="J45">
         <v>1432</v>
@@ -3546,16 +3578,16 @@
         <v>8908</v>
       </c>
       <c r="M45">
-        <v>2.09427374301676</v>
+        <v>2.0942737430167599</v>
       </c>
       <c r="N45">
         <v>28</v>
       </c>
       <c r="O45">
-        <v>5.206703910614525</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>5.2067039106145252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3572,10 +3604,10 @@
         <v>540</v>
       </c>
       <c r="F46">
-        <v>0.07184504913076341</v>
+        <v>7.1845049130763408E-2</v>
       </c>
       <c r="G46">
-        <v>0.5635668934240364</v>
+        <v>0.56356689342403643</v>
       </c>
       <c r="H46">
         <v>5050</v>
@@ -3593,16 +3625,16 @@
         <v>6085</v>
       </c>
       <c r="M46">
-        <v>2.051059730250482</v>
+        <v>2.0510597302504818</v>
       </c>
       <c r="N46">
         <v>76</v>
       </c>
       <c r="O46">
-        <v>4.865125240847784</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>4.8651252408477843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3619,10 +3651,10 @@
         <v>867</v>
       </c>
       <c r="F47">
-        <v>0.03793595962270661</v>
+        <v>3.7935959622706607E-2</v>
       </c>
       <c r="G47">
-        <v>0.4489474447908183</v>
+        <v>0.44894744479081827</v>
       </c>
       <c r="H47">
         <v>7590</v>
@@ -3646,10 +3678,10 @@
         <v>53</v>
       </c>
       <c r="O47">
-        <v>4.840561224489796</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>4.8405612244897958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3666,10 +3698,10 @@
         <v>435</v>
       </c>
       <c r="F48">
-        <v>0.06652211336421861</v>
+        <v>6.6522113364218607E-2</v>
       </c>
       <c r="G48">
-        <v>0.4100396874081084</v>
+        <v>0.41003968740810842</v>
       </c>
       <c r="H48">
         <v>3948</v>
@@ -3687,16 +3719,16 @@
         <v>4706</v>
       </c>
       <c r="M48">
-        <v>2.027631578947368</v>
+        <v>2.0276315789473678</v>
       </c>
       <c r="N48">
         <v>7</v>
       </c>
       <c r="O48">
-        <v>5.194736842105264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>5.1947368421052644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3713,10 +3745,10 @@
         <v>698</v>
       </c>
       <c r="F49">
-        <v>0.06364806364806361</v>
+        <v>6.3648063648063608E-2</v>
       </c>
       <c r="G49">
-        <v>0.3976110226110225</v>
+        <v>0.39761102261102249</v>
       </c>
       <c r="H49">
         <v>6394</v>
@@ -3734,16 +3766,16 @@
         <v>7579</v>
       </c>
       <c r="M49">
-        <v>2.105574324324324</v>
+        <v>2.1055743243243241</v>
       </c>
       <c r="N49">
         <v>10</v>
       </c>
       <c r="O49">
-        <v>5.400337837837838</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>5.4003378378378377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3760,10 +3792,10 @@
         <v>958</v>
       </c>
       <c r="F50">
-        <v>0.07622287691732134</v>
+        <v>7.6222876917321339E-2</v>
       </c>
       <c r="G50">
-        <v>0.4140623203956537</v>
+        <v>0.41406232039565372</v>
       </c>
       <c r="H50">
         <v>8683</v>
@@ -3781,16 +3813,16 @@
         <v>10375</v>
       </c>
       <c r="M50">
-        <v>2.051297169811321</v>
+        <v>2.0512971698113209</v>
       </c>
       <c r="N50">
         <v>32</v>
       </c>
       <c r="O50">
-        <v>5.119693396226415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>5.1196933962264151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3807,7 +3839,7 @@
         <v>2387</v>
       </c>
       <c r="F51">
-        <v>0.04960279082619508</v>
+        <v>4.9602790826195078E-2</v>
       </c>
       <c r="G51">
         <v>0.3315663503163504</v>
@@ -3834,10 +3866,10 @@
         <v>2</v>
       </c>
       <c r="O51">
-        <v>5.059805707346691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>5.0598057073466913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3854,10 +3886,10 @@
         <v>965</v>
       </c>
       <c r="F52">
-        <v>0.01957226870817475</v>
+        <v>1.9572268708174748E-2</v>
       </c>
       <c r="G52">
-        <v>0.4612459203734371</v>
+        <v>0.46124592037343709</v>
       </c>
       <c r="H52">
         <v>8837</v>
@@ -3875,16 +3907,16 @@
         <v>10602</v>
       </c>
       <c r="M52">
-        <v>1.999433106575964</v>
+        <v>1.9994331065759641</v>
       </c>
       <c r="N52">
         <v>33</v>
       </c>
       <c r="O52">
-        <v>5.009637188208616</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>5.0096371882086164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3901,16 +3933,16 @@
         <v>916</v>
       </c>
       <c r="F53">
-        <v>0.01881493506493507</v>
+        <v>1.8814935064935069E-2</v>
       </c>
       <c r="G53">
-        <v>0.3716767676767675</v>
+        <v>0.37167676767676749</v>
       </c>
       <c r="H53">
         <v>8277</v>
       </c>
       <c r="I53">
-        <v>607.05</v>
+        <v>607.04999999999995</v>
       </c>
       <c r="J53">
         <v>1505</v>
@@ -3922,16 +3954,16 @@
         <v>9783</v>
       </c>
       <c r="M53">
-        <v>2.236544850498339</v>
+        <v>2.2365448504983392</v>
       </c>
       <c r="N53">
         <v>8</v>
       </c>
       <c r="O53">
-        <v>5.499667774086379</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>5.4996677740863786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3948,7 +3980,7 @@
         <v>93</v>
       </c>
       <c r="F54">
-        <v>0.2584290709290709</v>
+        <v>0.25842907092907091</v>
       </c>
       <c r="G54">
         <v>0.4681610056610056</v>
@@ -3957,7 +3989,7 @@
         <v>790</v>
       </c>
       <c r="I54">
-        <v>70.01000000000001</v>
+        <v>70.010000000000005</v>
       </c>
       <c r="J54">
         <v>166</v>
@@ -3975,10 +4007,10 @@
         <v>8</v>
       </c>
       <c r="O54">
-        <v>4.759036144578313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>4.7590361445783129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3995,10 +4027,10 @@
         <v>600</v>
       </c>
       <c r="F55">
-        <v>0.1582658321060383</v>
+        <v>0.15826583210603831</v>
       </c>
       <c r="G55">
-        <v>0.4762211585665194</v>
+        <v>0.47622115856651942</v>
       </c>
       <c r="H55">
         <v>4752</v>
@@ -4016,16 +4048,16 @@
         <v>5698</v>
       </c>
       <c r="M55">
-        <v>1.993730407523511</v>
+        <v>1.9937304075235109</v>
       </c>
       <c r="N55">
         <v>27</v>
       </c>
       <c r="O55">
-        <v>4.96551724137931</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>4.9655172413793096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -4045,7 +4077,7 @@
         <v>0.1096026770164701</v>
       </c>
       <c r="G56">
-        <v>0.431176046176046</v>
+        <v>0.43117604617604599</v>
       </c>
       <c r="H56">
         <v>8976</v>
@@ -4063,16 +4095,16 @@
         <v>10806</v>
       </c>
       <c r="M56">
-        <v>1.945295404814004</v>
+        <v>1.9452954048140041</v>
       </c>
       <c r="N56">
         <v>46</v>
       </c>
       <c r="O56">
-        <v>4.910284463894967</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>4.9102844638949668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4089,7 +4121,7 @@
         <v>1101</v>
       </c>
       <c r="F57">
-        <v>0.1574077989194269</v>
+        <v>0.15740779891942691</v>
       </c>
       <c r="G57">
         <v>0.4301200801782199</v>
@@ -4116,10 +4148,10 @@
         <v>51</v>
       </c>
       <c r="O57">
-        <v>5.096700796359499</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>5.0967007963594986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4136,10 +4168,10 @@
         <v>618</v>
       </c>
       <c r="F58">
-        <v>0.09475304998032269</v>
+        <v>9.475304998032269E-2</v>
       </c>
       <c r="G58">
-        <v>0.4424435980685981</v>
+        <v>0.44244359806859812</v>
       </c>
       <c r="H58">
         <v>5355</v>
@@ -4157,7 +4189,7 @@
         <v>6421</v>
       </c>
       <c r="M58">
-        <v>1.982159624413146</v>
+        <v>1.9821596244131461</v>
       </c>
       <c r="N58">
         <v>27</v>
@@ -4166,7 +4198,7 @@
         <v>5.028169014084507</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4183,10 +4215,10 @@
         <v>1098</v>
       </c>
       <c r="F59">
-        <v>0.02894179894179895</v>
+        <v>2.8941798941798949E-2</v>
       </c>
       <c r="G59">
-        <v>0.4176384998443821</v>
+        <v>0.41763849984438212</v>
       </c>
       <c r="H59">
         <v>9484</v>
@@ -4204,16 +4236,16 @@
         <v>11256</v>
       </c>
       <c r="M59">
-        <v>2.052188552188552</v>
+        <v>2.0521885521885519</v>
       </c>
       <c r="N59">
         <v>12</v>
       </c>
       <c r="O59">
-        <v>5.322109988776655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>5.3221099887766554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4230,10 +4262,10 @@
         <v>542</v>
       </c>
       <c r="F60">
-        <v>0.08507990132990129</v>
+        <v>8.5079901329901286E-2</v>
       </c>
       <c r="G60">
-        <v>0.4403142428142426</v>
+        <v>0.44031424281424258</v>
       </c>
       <c r="H60">
         <v>4874</v>
@@ -4251,7 +4283,7 @@
         <v>5855</v>
       </c>
       <c r="M60">
-        <v>2.011363636363636</v>
+        <v>2.0113636363636358</v>
       </c>
       <c r="N60">
         <v>16</v>
@@ -4260,7 +4292,7 @@
         <v>5.035123966942149</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4280,7 +4312,7 @@
         <v>0.1145707373858635</v>
       </c>
       <c r="G61">
-        <v>0.4450622067008624</v>
+        <v>0.44506220670086238</v>
       </c>
       <c r="H61">
         <v>5838</v>
@@ -4304,10 +4336,10 @@
         <v>54</v>
       </c>
       <c r="O61">
-        <v>4.816831683168317</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>4.8168316831683171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4324,10 +4356,10 @@
         <v>607</v>
       </c>
       <c r="F62">
-        <v>0.07701032059727714</v>
+        <v>7.7010320597277138E-2</v>
       </c>
       <c r="G62">
-        <v>0.432465963987703</v>
+        <v>0.43246596398770298</v>
       </c>
       <c r="H62">
         <v>5453</v>
@@ -4351,10 +4383,10 @@
         <v>27</v>
       </c>
       <c r="O62">
-        <v>4.975364963503649</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>4.9753649635036492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4371,10 +4403,10 @@
         <v>875</v>
       </c>
       <c r="F63">
-        <v>0.08488200589970503</v>
+        <v>8.4882005899705029E-2</v>
       </c>
       <c r="G63">
-        <v>0.3320952891749352</v>
+        <v>0.33209528917493519</v>
       </c>
       <c r="H63">
         <v>6695</v>
@@ -4392,16 +4424,16 @@
         <v>7975</v>
       </c>
       <c r="M63">
-        <v>2.044846577498033</v>
+        <v>2.0448465774980331</v>
       </c>
       <c r="N63">
         <v>10</v>
       </c>
       <c r="O63">
-        <v>5.26750590086546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>5.2675059008654603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4418,10 +4450,10 @@
         <v>107</v>
       </c>
       <c r="F64">
-        <v>0.2732548701298702</v>
+        <v>0.27325487012987021</v>
       </c>
       <c r="G64">
-        <v>0.4249120670995671</v>
+        <v>0.42491206709956708</v>
       </c>
       <c r="H64">
         <v>855</v>
@@ -4439,16 +4471,16 @@
         <v>1041</v>
       </c>
       <c r="M64">
-        <v>1.830687830687831</v>
+        <v>1.8306878306878309</v>
       </c>
       <c r="N64">
         <v>8</v>
       </c>
       <c r="O64">
-        <v>4.523809523809524</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>4.5238095238095237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4465,10 +4497,10 @@
         <v>614</v>
       </c>
       <c r="F65">
-        <v>0.06271586203651421</v>
+        <v>6.2715862036514206E-2</v>
       </c>
       <c r="G65">
-        <v>0.433699181253529</v>
+        <v>0.43369918125352902</v>
       </c>
       <c r="H65">
         <v>5318</v>
@@ -4495,7 +4527,7 @@
         <v>4.843351548269581</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4512,7 +4544,7 @@
         <v>385</v>
       </c>
       <c r="F66">
-        <v>0.05948027068716724</v>
+        <v>5.9480270687167242E-2</v>
       </c>
       <c r="G66">
         <v>0.4058518110242248</v>
@@ -4533,16 +4565,16 @@
         <v>3771</v>
       </c>
       <c r="M66">
-        <v>1.948635634028892</v>
+        <v>1.9486356340288919</v>
       </c>
       <c r="N66">
         <v>12</v>
       </c>
       <c r="O66">
-        <v>5.041733547351525</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>5.0417335473515248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4559,10 +4591,10 @@
         <v>635</v>
       </c>
       <c r="F67">
-        <v>0.05715384749658943</v>
+        <v>5.715384749658943E-2</v>
       </c>
       <c r="G67">
-        <v>0.3914643689643688</v>
+        <v>0.39146436896436881</v>
       </c>
       <c r="H67">
         <v>5892</v>
@@ -4580,16 +4612,16 @@
         <v>7011</v>
       </c>
       <c r="M67">
-        <v>2.067978533094812</v>
+        <v>2.0679785330948119</v>
       </c>
       <c r="N67">
         <v>5</v>
       </c>
       <c r="O67">
-        <v>5.270125223613595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>5.2701252236135954</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4606,10 +4638,10 @@
         <v>521</v>
       </c>
       <c r="F68">
-        <v>0.06413482834994465</v>
+        <v>6.4134828349944648E-2</v>
       </c>
       <c r="G68">
-        <v>0.4360065806286736</v>
+        <v>0.43600658062867359</v>
       </c>
       <c r="H68">
         <v>5087</v>
@@ -4627,7 +4659,7 @@
         <v>6165</v>
       </c>
       <c r="M68">
-        <v>1.89322191272052</v>
+        <v>1.8932219127205201</v>
       </c>
       <c r="N68">
         <v>28</v>
@@ -4636,7 +4668,7 @@
         <v>4.72330547818013</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4656,7 +4688,7 @@
         <v>0.105171568627451</v>
       </c>
       <c r="G69">
-        <v>0.4354901960784313</v>
+        <v>0.43549019607843131</v>
       </c>
       <c r="H69">
         <v>2148</v>
@@ -4674,16 +4706,16 @@
         <v>2533</v>
       </c>
       <c r="M69">
-        <v>2.154046997389034</v>
+        <v>2.1540469973890342</v>
       </c>
       <c r="N69">
         <v>4</v>
       </c>
       <c r="O69">
-        <v>5.608355091383812</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>5.6083550913838121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4700,7 +4732,7 @@
         <v>387</v>
       </c>
       <c r="F70">
-        <v>0.09073063973063976</v>
+        <v>9.0730639730639759E-2</v>
       </c>
       <c r="G70">
         <v>0.3884276094276094</v>
@@ -4721,16 +4753,16 @@
         <v>3488</v>
       </c>
       <c r="M70">
-        <v>1.861111111111111</v>
+        <v>1.8611111111111109</v>
       </c>
       <c r="N70">
         <v>12</v>
       </c>
       <c r="O70">
-        <v>4.697712418300654</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>4.6977124183006538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4747,10 +4779,10 @@
         <v>588</v>
       </c>
       <c r="F71">
-        <v>0.08566630591630595</v>
+        <v>8.5666305916305946E-2</v>
       </c>
       <c r="G71">
-        <v>0.4127038239538239</v>
+        <v>0.41270382395382388</v>
       </c>
       <c r="H71">
         <v>5540</v>
@@ -4768,16 +4800,16 @@
         <v>6575</v>
       </c>
       <c r="M71">
-        <v>2.108108108108108</v>
+        <v>2.1081081081081079</v>
       </c>
       <c r="N71">
         <v>8</v>
       </c>
       <c r="O71">
-        <v>5.347490347490347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>5.3474903474903472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4794,10 +4826,10 @@
         <v>349</v>
       </c>
       <c r="F72">
-        <v>0.2563350340136055</v>
+        <v>0.25633503401360552</v>
       </c>
       <c r="G72">
-        <v>0.5199829931972789</v>
+        <v>0.51998299319727892</v>
       </c>
       <c r="H72">
         <v>3041</v>
@@ -4821,10 +4853,10 @@
         <v>60</v>
       </c>
       <c r="O72">
-        <v>4.247206703910615</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>4.2472067039106154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4841,7 +4873,7 @@
         <v>637</v>
       </c>
       <c r="F73">
-        <v>0.04362853371376099</v>
+        <v>4.3628533713760992E-2</v>
       </c>
       <c r="G73">
         <v>0.3261895743145744</v>
@@ -4862,16 +4894,16 @@
         <v>6489</v>
       </c>
       <c r="M73">
-        <v>2.021133525456292</v>
+        <v>2.0211335254562921</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>5.232468780019213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>5.2324687800192127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4888,10 +4920,10 @@
         <v>562</v>
       </c>
       <c r="F74">
-        <v>0.05916069710712567</v>
+        <v>5.9160697107125668E-2</v>
       </c>
       <c r="G74">
-        <v>0.4650059266130694</v>
+        <v>0.46500592661306939</v>
       </c>
       <c r="H74">
         <v>5436</v>
@@ -4909,7 +4941,7 @@
         <v>6466</v>
       </c>
       <c r="M74">
-        <v>2.11587147030185</v>
+        <v>2.1158714703018502</v>
       </c>
       <c r="N74">
         <v>14</v>
@@ -4918,7 +4950,7 @@
         <v>5.293086660175268</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4935,10 +4967,10 @@
         <v>593</v>
       </c>
       <c r="F75">
-        <v>0.1104446479446479</v>
+        <v>0.11044464794464789</v>
       </c>
       <c r="G75">
-        <v>0.4287342287342288</v>
+        <v>0.42873422873422878</v>
       </c>
       <c r="H75">
         <v>5415</v>
@@ -4956,16 +4988,16 @@
         <v>6428</v>
       </c>
       <c r="M75">
-        <v>2.089832181638697</v>
+        <v>2.0898321816386969</v>
       </c>
       <c r="N75">
         <v>11</v>
       </c>
       <c r="O75">
-        <v>5.345508390918065</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>5.3455083909180647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4982,10 +5014,10 @@
         <v>762</v>
       </c>
       <c r="F76">
-        <v>0.05641140468726676</v>
+        <v>5.6411404687266763E-2</v>
       </c>
       <c r="G76">
-        <v>0.3846937353833905</v>
+        <v>0.38469373538339052</v>
       </c>
       <c r="H76">
         <v>6350</v>
@@ -5003,16 +5035,16 @@
         <v>7626</v>
       </c>
       <c r="M76">
-        <v>1.983306836248013</v>
+        <v>1.9833068362480131</v>
       </c>
       <c r="N76">
         <v>18</v>
       </c>
       <c r="O76">
-        <v>5.047694753577106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>5.0476947535771064</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -5029,10 +5061,10 @@
         <v>873</v>
       </c>
       <c r="F77">
-        <v>0.0319966530383197</v>
+        <v>3.1996653038319701E-2</v>
       </c>
       <c r="G77">
-        <v>0.4734675875821709</v>
+        <v>0.47346758758217089</v>
       </c>
       <c r="H77">
         <v>7605</v>
@@ -5050,7 +5082,7 @@
         <v>9167</v>
       </c>
       <c r="M77">
-        <v>1.912820512820513</v>
+        <v>1.9128205128205129</v>
       </c>
       <c r="N77">
         <v>16</v>
@@ -5059,7 +5091,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -5076,10 +5108,10 @@
         <v>1145</v>
       </c>
       <c r="F78">
-        <v>-0.01497857845202978</v>
+        <v>-1.4978578452029779E-2</v>
       </c>
       <c r="G78">
-        <v>0.3716315493749122</v>
+        <v>0.37163154937491222</v>
       </c>
       <c r="H78">
         <v>9188</v>
@@ -5103,10 +5135,10 @@
         <v>17</v>
       </c>
       <c r="O78">
-        <v>5.040043883708173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>5.0400438837081731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -5123,10 +5155,10 @@
         <v>464</v>
       </c>
       <c r="F79">
-        <v>0.06827476150392814</v>
+        <v>6.8274761503928139E-2</v>
       </c>
       <c r="G79">
-        <v>0.4795216550424884</v>
+        <v>0.47952165504248839</v>
       </c>
       <c r="H79">
         <v>3759</v>
@@ -5144,16 +5176,16 @@
         <v>4636</v>
       </c>
       <c r="M79">
-        <v>1.680365296803653</v>
+        <v>1.6803652968036531</v>
       </c>
       <c r="N79">
         <v>61</v>
       </c>
       <c r="O79">
-        <v>4.291095890410959</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>4.2910958904109586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -5170,10 +5202,10 @@
         <v>1118</v>
       </c>
       <c r="F80">
-        <v>0.06639408099688471</v>
+        <v>6.6394080996884708E-2</v>
       </c>
       <c r="G80">
-        <v>0.4325730603767987</v>
+        <v>0.43257306037679871</v>
       </c>
       <c r="H80">
         <v>9995</v>
@@ -5191,7 +5223,7 @@
         <v>11948</v>
       </c>
       <c r="M80">
-        <v>2.052548607461902</v>
+        <v>2.0525486074619019</v>
       </c>
       <c r="N80">
         <v>26</v>
@@ -5200,7 +5232,7 @@
         <v>5.252233315817131</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -5220,7 +5252,7 @@
         <v>0.1121111696111696</v>
       </c>
       <c r="G81">
-        <v>0.496595739095739</v>
+        <v>0.49659573909573901</v>
       </c>
       <c r="H81">
         <v>5738</v>
@@ -5244,10 +5276,10 @@
         <v>53</v>
       </c>
       <c r="O81">
-        <v>4.525236593059937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>4.5252365930599368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -5264,10 +5296,10 @@
         <v>207</v>
       </c>
       <c r="F82">
-        <v>0.07287296037296037</v>
+        <v>7.2872960372960371E-2</v>
       </c>
       <c r="G82">
-        <v>0.4607517482517482</v>
+        <v>0.46075174825174819</v>
       </c>
       <c r="H82">
         <v>1830</v>
@@ -5291,10 +5323,10 @@
         <v>4</v>
       </c>
       <c r="O82">
-        <v>5.462686567164179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>5.4626865671641793</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -5311,16 +5343,16 @@
         <v>1319</v>
       </c>
       <c r="F83">
-        <v>0.02910643299352978</v>
+        <v>2.9106432993529781E-2</v>
       </c>
       <c r="G83">
-        <v>0.3307033002839456</v>
+        <v>0.33070330028394562</v>
       </c>
       <c r="H83">
         <v>11182</v>
       </c>
       <c r="I83">
-        <v>860.5700000000001</v>
+        <v>860.57</v>
       </c>
       <c r="J83">
         <v>2141</v>
@@ -5332,16 +5364,16 @@
         <v>13326</v>
       </c>
       <c r="M83">
-        <v>1.995796356842597</v>
+        <v>1.9957963568425969</v>
       </c>
       <c r="N83">
         <v>16</v>
       </c>
       <c r="O83">
-        <v>5.222793087342364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>5.2227930873423638</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -5358,16 +5390,16 @@
         <v>761</v>
       </c>
       <c r="F84">
-        <v>0.0954523036487322</v>
+        <v>9.5452303648732195E-2</v>
       </c>
       <c r="G84">
-        <v>0.4780301999587711</v>
+        <v>0.47803019995877111</v>
       </c>
       <c r="H84">
         <v>7192</v>
       </c>
       <c r="I84">
-        <v>643.5700000000001</v>
+        <v>643.57000000000005</v>
       </c>
       <c r="J84">
         <v>1602</v>
@@ -5379,16 +5411,16 @@
         <v>8807</v>
       </c>
       <c r="M84">
-        <v>1.794631710362047</v>
+        <v>1.7946317103620471</v>
       </c>
       <c r="N84">
         <v>74</v>
       </c>
       <c r="O84">
-        <v>4.489388264669164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>4.4893882646691639</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -5405,7 +5437,7 @@
         <v>1023</v>
       </c>
       <c r="F85">
-        <v>0.07181054675917688</v>
+        <v>7.1810546759176877E-2</v>
       </c>
       <c r="G85">
         <v>0.433382405265967</v>
@@ -5426,16 +5458,16 @@
         <v>10283</v>
       </c>
       <c r="M85">
-        <v>1.979568009340338</v>
+        <v>1.9795680093403381</v>
       </c>
       <c r="N85">
         <v>36</v>
       </c>
       <c r="O85">
-        <v>5.000583771161705</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>5.0005837711617049</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -5455,7 +5487,7 @@
         <v>0.1061100783747843</v>
       </c>
       <c r="G86">
-        <v>0.4377050172050174</v>
+        <v>0.43770501720501742</v>
       </c>
       <c r="H86">
         <v>9187</v>
@@ -5473,16 +5505,16 @@
         <v>10946</v>
       </c>
       <c r="M86">
-        <v>1.982834994462901</v>
+        <v>1.9828349944629009</v>
       </c>
       <c r="N86">
         <v>32</v>
       </c>
       <c r="O86">
-        <v>5.086932447397563</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>5.0869324473975626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -5499,10 +5531,10 @@
         <v>1193</v>
       </c>
       <c r="F87">
-        <v>0.07752795319759606</v>
+        <v>7.7527953197596061E-2</v>
       </c>
       <c r="G87">
-        <v>0.3923359130948417</v>
+        <v>0.39233591309484173</v>
       </c>
       <c r="H87">
         <v>10249</v>
@@ -5520,16 +5552,16 @@
         <v>12398</v>
       </c>
       <c r="M87">
-        <v>2.031491997934951</v>
+        <v>2.0314919979349511</v>
       </c>
       <c r="N87">
         <v>14</v>
       </c>
       <c r="O87">
-        <v>5.291171915332989</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>5.2911719153329893</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -5546,10 +5578,10 @@
         <v>1056</v>
       </c>
       <c r="F88">
-        <v>0.1346334971334971</v>
+        <v>0.13463349713349709</v>
       </c>
       <c r="G88">
-        <v>0.3792551480051481</v>
+        <v>0.37925514800514809</v>
       </c>
       <c r="H88">
         <v>9492</v>
@@ -5567,16 +5599,16 @@
         <v>11322</v>
       </c>
       <c r="M88">
-        <v>2.071115973741794</v>
+        <v>2.0711159737417941</v>
       </c>
       <c r="N88">
         <v>32</v>
       </c>
       <c r="O88">
-        <v>5.192560175054704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>5.1925601750547044</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -5593,10 +5625,10 @@
         <v>477</v>
       </c>
       <c r="F89">
-        <v>0.05299463333171198</v>
+        <v>5.2994633331711977E-2</v>
       </c>
       <c r="G89">
-        <v>0.3913322632423756</v>
+        <v>0.39133226324237558</v>
       </c>
       <c r="H89">
         <v>4239</v>
@@ -5614,7 +5646,7 @@
         <v>5077</v>
       </c>
       <c r="M89">
-        <v>1.986857825567503</v>
+        <v>1.9868578255675029</v>
       </c>
       <c r="N89">
         <v>11</v>
@@ -5623,7 +5655,7 @@
         <v>5.064516129032258</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -5640,10 +5672,10 @@
         <v>879</v>
       </c>
       <c r="F90">
-        <v>0.02551009145380007</v>
+        <v>2.5510091453800069E-2</v>
       </c>
       <c r="G90">
-        <v>0.4473809523809524</v>
+        <v>0.44738095238095238</v>
       </c>
       <c r="H90">
         <v>8373</v>
@@ -5670,7 +5702,7 @@
         <v>5.246240601503759</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -5687,10 +5719,10 @@
         <v>528</v>
       </c>
       <c r="F91">
-        <v>0.1936226851851852</v>
+        <v>0.19362268518518519</v>
       </c>
       <c r="G91">
-        <v>0.536238425925926</v>
+        <v>0.53623842592592597</v>
       </c>
       <c r="H91">
         <v>4834</v>
@@ -5717,7 +5749,7 @@
         <v>4.9026369168357</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -5734,10 +5766,10 @@
         <v>444</v>
       </c>
       <c r="F92">
-        <v>0.07779734389903879</v>
+        <v>7.7797343899038793E-2</v>
       </c>
       <c r="G92">
-        <v>0.4324446034191796</v>
+        <v>0.43244460341917962</v>
       </c>
       <c r="H92">
         <v>3597</v>
@@ -5761,10 +5793,10 @@
         <v>3</v>
       </c>
       <c r="O92">
-        <v>5.321005917159764</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>5.3210059171597637</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5781,10 +5813,10 @@
         <v>1054</v>
       </c>
       <c r="F93">
-        <v>0.01323121323121323</v>
+        <v>1.3231213231213229E-2</v>
       </c>
       <c r="G93">
-        <v>0.4012876012876013</v>
+        <v>0.40128760128760133</v>
       </c>
       <c r="H93">
         <v>8785</v>
@@ -5802,16 +5834,16 @@
         <v>10416</v>
       </c>
       <c r="M93">
-        <v>2.071129707112971</v>
+        <v>2.0711297071129708</v>
       </c>
       <c r="N93">
         <v>4</v>
       </c>
       <c r="O93">
-        <v>5.251046025104602</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>5.2510460251046016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5828,16 +5860,16 @@
         <v>1063</v>
       </c>
       <c r="F94">
-        <v>0.1337564419707276</v>
+        <v>0.13375644197072761</v>
       </c>
       <c r="G94">
-        <v>0.4519581030741746</v>
+        <v>0.45195810307417461</v>
       </c>
       <c r="H94">
         <v>9138</v>
       </c>
       <c r="I94">
-        <v>696.5700000000001</v>
+        <v>696.57</v>
       </c>
       <c r="J94">
         <v>1729</v>
@@ -5849,16 +5881,16 @@
         <v>10888</v>
       </c>
       <c r="M94">
-        <v>2.08849045691151</v>
+        <v>2.0884904569115101</v>
       </c>
       <c r="N94">
         <v>29</v>
       </c>
       <c r="O94">
-        <v>5.285135916714864</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>5.2851359167148644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5875,7 +5907,7 @@
         <v>823</v>
       </c>
       <c r="F95">
-        <v>0.07345173432437582</v>
+        <v>7.3451734324375823E-2</v>
       </c>
       <c r="G95">
         <v>0.434461460970895</v>
@@ -5884,7 +5916,7 @@
         <v>7078</v>
       </c>
       <c r="I95">
-        <v>543.95</v>
+        <v>543.95000000000005</v>
       </c>
       <c r="J95">
         <v>1351</v>
@@ -5896,16 +5928,16 @@
         <v>8456</v>
       </c>
       <c r="M95">
-        <v>2.051073279052554</v>
+        <v>2.0510732790525541</v>
       </c>
       <c r="N95">
         <v>33</v>
       </c>
       <c r="O95">
-        <v>5.239082161361954</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>5.2390821613619538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5922,10 +5954,10 @@
         <v>614</v>
       </c>
       <c r="F96">
-        <v>0.0560996632996633</v>
+        <v>5.6099663299663302E-2</v>
       </c>
       <c r="G96">
-        <v>0.4468902356902356</v>
+        <v>0.44689023569023562</v>
       </c>
       <c r="H96">
         <v>5801</v>
@@ -5952,7 +5984,7 @@
         <v>5.847782258064516</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5969,10 +6001,10 @@
         <v>212</v>
       </c>
       <c r="F97">
-        <v>0.04752265963203463</v>
+        <v>4.7522659632034628E-2</v>
       </c>
       <c r="G97">
-        <v>0.3365395021645022</v>
+        <v>0.33653950216450218</v>
       </c>
       <c r="H97">
         <v>2042</v>
@@ -5990,16 +6022,16 @@
         <v>2401</v>
       </c>
       <c r="M97">
-        <v>2.337988826815642</v>
+        <v>2.3379888268156419</v>
       </c>
       <c r="N97">
         <v>6</v>
       </c>
       <c r="O97">
-        <v>5.70391061452514</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>5.7039106145251397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -6016,7 +6048,7 @@
         <v>179</v>
       </c>
       <c r="F98">
-        <v>0.1766528925619835</v>
+        <v>0.17665289256198349</v>
       </c>
       <c r="G98">
         <v>0.3664944903581267</v>
@@ -6037,16 +6069,16 @@
         <v>1751</v>
       </c>
       <c r="M98">
-        <v>1.792452830188679</v>
+        <v>1.7924528301886791</v>
       </c>
       <c r="N98">
         <v>9</v>
       </c>
       <c r="O98">
-        <v>4.49685534591195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>4.4968553459119498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -6063,10 +6095,10 @@
         <v>184</v>
       </c>
       <c r="F99">
-        <v>0.01552579365079365</v>
+        <v>1.5525793650793649E-2</v>
       </c>
       <c r="G99">
-        <v>0.4855654761904762</v>
+        <v>0.48556547619047619</v>
       </c>
       <c r="H99">
         <v>1844</v>
@@ -6084,16 +6116,16 @@
         <v>2238</v>
       </c>
       <c r="M99">
-        <v>1.88974358974359</v>
+        <v>1.8897435897435899</v>
       </c>
       <c r="N99">
         <v>11</v>
       </c>
       <c r="O99">
-        <v>4.728205128205128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>4.7282051282051283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -6110,7 +6142,7 @@
         <v>131</v>
       </c>
       <c r="F100">
-        <v>-0.004982864357864357</v>
+        <v>-4.9828643578643571E-3</v>
       </c>
       <c r="G100">
         <v>0.3402191558441558</v>
@@ -6131,16 +6163,16 @@
         <v>1317</v>
       </c>
       <c r="M100">
-        <v>1.936936936936937</v>
+        <v>1.9369369369369369</v>
       </c>
       <c r="N100">
         <v>7</v>
       </c>
       <c r="O100">
-        <v>4.972972972972973</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>4.9729729729729728</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -6157,10 +6189,10 @@
         <v>132</v>
       </c>
       <c r="F101">
-        <v>-0.0125</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
       <c r="G101">
-        <v>0.3834523809523809</v>
+        <v>0.38345238095238088</v>
       </c>
       <c r="H101">
         <v>1241</v>
@@ -6184,10 +6216,10 @@
         <v>12</v>
       </c>
       <c r="O101">
-        <v>4.944223107569721</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>4.9442231075697212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -6207,7 +6239,7 @@
         <v>0.1383255170755171</v>
       </c>
       <c r="G102">
-        <v>0.4221344396344396</v>
+        <v>0.42213443963443958</v>
       </c>
       <c r="H102">
         <v>3385</v>
@@ -6225,16 +6257,16 @@
         <v>4017</v>
       </c>
       <c r="M102">
-        <v>2.20327868852459</v>
+        <v>2.2032786885245899</v>
       </c>
       <c r="N102">
         <v>15</v>
       </c>
       <c r="O102">
-        <v>5.549180327868853</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>5.5491803278688527</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -6251,10 +6283,10 @@
         <v>588</v>
       </c>
       <c r="F103">
-        <v>0.04130564617290282</v>
+        <v>4.1305646172902818E-2</v>
       </c>
       <c r="G103">
-        <v>0.437486333725272</v>
+        <v>0.43748633372527201</v>
       </c>
       <c r="H103">
         <v>5198</v>
@@ -6272,16 +6304,16 @@
         <v>6247</v>
       </c>
       <c r="M103">
-        <v>1.928777670837344</v>
+        <v>1.9287776708373441</v>
       </c>
       <c r="N103">
         <v>8</v>
       </c>
       <c r="O103">
-        <v>5.00288739172281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>5.0028873917228101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -6298,10 +6330,10 @@
         <v>533</v>
       </c>
       <c r="F104">
-        <v>0.03870591214341216</v>
+        <v>3.8705912143412159E-2</v>
       </c>
       <c r="G104">
-        <v>0.416261516261516</v>
+        <v>0.41626151626151597</v>
       </c>
       <c r="H104">
         <v>4764</v>
@@ -6325,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="O104">
-        <v>4.871165644171779</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>4.8711656441717794</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -6345,10 +6377,10 @@
         <v>1042</v>
       </c>
       <c r="F105">
-        <v>0.1083131851564687</v>
+        <v>0.10831318515646871</v>
       </c>
       <c r="G105">
-        <v>0.4009989952004877</v>
+        <v>0.40099899520048771</v>
       </c>
       <c r="H105">
         <v>9301</v>
@@ -6372,10 +6404,10 @@
         <v>15</v>
       </c>
       <c r="O105">
-        <v>5.124517906336088</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>5.1245179063360879</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -6392,10 +6424,10 @@
         <v>344</v>
       </c>
       <c r="F106">
-        <v>0.1401709618506494</v>
+        <v>0.14017096185064939</v>
       </c>
       <c r="G106">
-        <v>0.4080661525974026</v>
+        <v>0.40806615259740259</v>
       </c>
       <c r="H106">
         <v>3119</v>
@@ -6413,16 +6445,16 @@
         <v>3741</v>
       </c>
       <c r="M106">
-        <v>2.011326860841424</v>
+        <v>2.0113268608414239</v>
       </c>
       <c r="N106">
         <v>8</v>
       </c>
       <c r="O106">
-        <v>5.046925566343042</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>5.0469255663430417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -6469,7 +6501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -6489,7 +6521,7 @@
         <v>0.1020331325301205</v>
       </c>
       <c r="G108">
-        <v>0.4536706349206349</v>
+        <v>0.45367063492063492</v>
       </c>
       <c r="H108">
         <v>4871</v>
@@ -6513,10 +6545,10 @@
         <v>21</v>
       </c>
       <c r="O108">
-        <v>5.170912951167728</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>5.1709129511677281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6533,10 +6565,10 @@
         <v>557</v>
       </c>
       <c r="F109">
-        <v>0.03548801080715974</v>
+        <v>3.5488010807159742E-2</v>
       </c>
       <c r="G109">
-        <v>0.4028140830800405</v>
+        <v>0.40281408308004052</v>
       </c>
       <c r="H109">
         <v>4895</v>
@@ -6554,16 +6586,16 @@
         <v>5807</v>
       </c>
       <c r="M109">
-        <v>2.109769484083425</v>
+        <v>2.1097694840834249</v>
       </c>
       <c r="N109">
         <v>23</v>
       </c>
       <c r="O109">
-        <v>5.373216245883644</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>5.3732162458836443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -6580,10 +6612,10 @@
         <v>1002</v>
       </c>
       <c r="F110">
-        <v>0.07472689380962763</v>
+        <v>7.4726893809627631E-2</v>
       </c>
       <c r="G110">
-        <v>0.3894354426548672</v>
+        <v>0.38943544265486718</v>
       </c>
       <c r="H110">
         <v>7979</v>
@@ -6601,16 +6633,16 @@
         <v>9546</v>
       </c>
       <c r="M110">
-        <v>2.04258064516129</v>
+        <v>2.0425806451612898</v>
       </c>
       <c r="N110">
         <v>24</v>
       </c>
       <c r="O110">
-        <v>5.147741935483871</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>5.1477419354838707</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -6627,10 +6659,10 @@
         <v>685</v>
       </c>
       <c r="F111">
-        <v>0.04031915615248948</v>
+        <v>4.0319156152489481E-2</v>
       </c>
       <c r="G111">
-        <v>0.4178918944303562</v>
+        <v>0.41789189443035618</v>
       </c>
       <c r="H111">
         <v>5903</v>
@@ -6648,16 +6680,16 @@
         <v>7071</v>
       </c>
       <c r="M111">
-        <v>2.069264069264069</v>
+        <v>2.0692640692640691</v>
       </c>
       <c r="N111">
         <v>14</v>
       </c>
       <c r="O111">
-        <v>5.110822510822511</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>5.1108225108225112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -6674,10 +6706,10 @@
         <v>444</v>
       </c>
       <c r="F112">
-        <v>0.2087481371087928</v>
+        <v>0.20874813710879281</v>
       </c>
       <c r="G112">
-        <v>0.546448087431694</v>
+        <v>0.54644808743169404</v>
       </c>
       <c r="H112">
         <v>4105</v>
@@ -6695,16 +6727,16 @@
         <v>4816</v>
       </c>
       <c r="M112">
-        <v>2.281118881118881</v>
+        <v>2.2811188811188812</v>
       </c>
       <c r="N112">
         <v>9</v>
       </c>
       <c r="O112">
-        <v>5.741258741258742</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>5.7412587412587417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -6724,7 +6756,7 @@
         <v>0.124962903369983</v>
       </c>
       <c r="G113">
-        <v>0.4590204191089148</v>
+        <v>0.45902041910891478</v>
       </c>
       <c r="H113">
         <v>5271</v>
@@ -6742,129 +6774,129 @@
         <v>6319</v>
       </c>
       <c r="M113">
-        <v>2.03444976076555</v>
+        <v>2.0344497607655501</v>
       </c>
       <c r="N113">
         <v>22</v>
       </c>
       <c r="O113">
-        <v>5.044019138755981</v>
+        <v>5.0440191387559814</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
-    <hyperlink ref="B86" r:id="rId85"/>
-    <hyperlink ref="B87" r:id="rId86"/>
-    <hyperlink ref="B88" r:id="rId87"/>
-    <hyperlink ref="B89" r:id="rId88"/>
-    <hyperlink ref="B90" r:id="rId89"/>
-    <hyperlink ref="B91" r:id="rId90"/>
-    <hyperlink ref="B92" r:id="rId91"/>
-    <hyperlink ref="B93" r:id="rId92"/>
-    <hyperlink ref="B94" r:id="rId93"/>
-    <hyperlink ref="B95" r:id="rId94"/>
-    <hyperlink ref="B96" r:id="rId95"/>
-    <hyperlink ref="B97" r:id="rId96"/>
-    <hyperlink ref="B98" r:id="rId97"/>
-    <hyperlink ref="B99" r:id="rId98"/>
-    <hyperlink ref="B100" r:id="rId99"/>
-    <hyperlink ref="B101" r:id="rId100"/>
-    <hyperlink ref="B102" r:id="rId101"/>
-    <hyperlink ref="B103" r:id="rId102"/>
-    <hyperlink ref="B104" r:id="rId103"/>
-    <hyperlink ref="B105" r:id="rId104"/>
-    <hyperlink ref="B106" r:id="rId105"/>
-    <hyperlink ref="B107" r:id="rId106"/>
-    <hyperlink ref="B108" r:id="rId107"/>
-    <hyperlink ref="B109" r:id="rId108"/>
-    <hyperlink ref="B110" r:id="rId109"/>
-    <hyperlink ref="B111" r:id="rId110"/>
-    <hyperlink ref="B112" r:id="rId111"/>
-    <hyperlink ref="B113" r:id="rId112"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
